--- a/Data Siswa.xlsx
+++ b/Data Siswa.xlsx
@@ -201,8 +201,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
-    <col min="1" max="1" width="14.850000000000001" customWidth="1"/>
-    <col min="2" max="2" width="9.450000000000001" customWidth="1"/>
+    <col min="1" max="1" width="25.650000000000002" customWidth="1"/>
+    <col min="2" max="2" width="12.15" customWidth="1"/>
     <col min="3" max="3" width="9.450000000000001" customWidth="1"/>
     <col min="4" max="4" width="9.450000000000001" customWidth="1"/>
   </cols>
@@ -239,24 +239,24 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Ajaw Kontol</t>
+          <t xml:space="preserve">aku gasuka sama ini</t>
         </is>
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">Kelas X</t>
+          <t xml:space="preserve">Kelas XII</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">TKP I</t>
+          <t xml:space="preserve">TKJT II</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">pler gaming</t>
+          <t xml:space="preserve">sadasdasd</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
@@ -266,7 +266,24 @@
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">LPS II</t>
+          <t xml:space="preserve">TKP I</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c t="inlineStr" r="A5">
+        <is>
+          <t xml:space="preserve">Sony Wakwaw</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B5">
+        <is>
+          <t xml:space="preserve">Kelas X</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C5">
+        <is>
+          <t xml:space="preserve">TKP I</t>
         </is>
       </c>
     </row>
